--- a/biology/Botanique/Cyanidium_caldarium/Cyanidium_caldarium.xlsx
+++ b/biology/Botanique/Cyanidium_caldarium/Cyanidium_caldarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanidium caldarium est une espèce d’algues rouges de la famille des Cyanidiaceae. 
 C'est une algue extrêmophile qui vit dans les mares ou sols chauds et acides, ou des sources chaudes. C'est un acidophile, supportant une acidité autour de pH 0, très rare dans un organisme vivant, et une température optimale de croissance d'environ 50 degrés Celsius.
